--- a/web_tool/test2.xlsx
+++ b/web_tool/test2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>x_col0</t>
   </si>
@@ -113,6 +113,14 @@
   </si>
   <si>
     <t>geom_col0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_col1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_col2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -499,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA151"/>
+  <dimension ref="A1:AC151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+    <sheetView tabSelected="1" topLeftCell="G110" workbookViewId="0">
+      <selection activeCell="T147" sqref="T147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -510,7 +518,7 @@
     <col min="14" max="15" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -569,31 +577,37 @@
         <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1.70459417137241</v>
       </c>
@@ -675,8 +689,14 @@
       <c r="AA2">
         <v>112.266874565225</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB2">
+        <v>112.266874565225</v>
+      </c>
+      <c r="AC2">
+        <v>112.266874565225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>-0.87088764965196097</v>
       </c>
@@ -758,8 +778,14 @@
       <c r="AA3">
         <v>194.75800662668701</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB3">
+        <v>194.75800662668701</v>
+      </c>
+      <c r="AC3">
+        <v>194.75800662668701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>-1.5048912837795101</v>
       </c>
@@ -821,13 +847,13 @@
         <v>179.87230533292899</v>
       </c>
       <c r="U4">
-        <v>-179.87230533292899</v>
+        <v>179.87230533292899</v>
       </c>
       <c r="V4">
         <v>179.87230533292899</v>
       </c>
       <c r="W4">
-        <v>179.87230533292899</v>
+        <v>-179.87230533292899</v>
       </c>
       <c r="X4">
         <v>179.87230533292899</v>
@@ -841,8 +867,14 @@
       <c r="AA4">
         <v>179.87230533292899</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB4">
+        <v>179.87230533292899</v>
+      </c>
+      <c r="AC4">
+        <v>179.87230533292899</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>-0.66575451819912701</v>
       </c>
@@ -924,8 +956,14 @@
       <c r="AA5">
         <v>74.968260307716406</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB5">
+        <v>74.968260307716406</v>
+      </c>
+      <c r="AC5">
+        <v>74.968260307716406</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1.6405536485552701</v>
       </c>
@@ -987,13 +1025,13 @@
         <v>197.62724650184501</v>
       </c>
       <c r="U6">
-        <v>-197.62724650184501</v>
+        <v>197.62724650184501</v>
       </c>
       <c r="V6">
         <v>197.62724650184501</v>
       </c>
       <c r="W6">
-        <v>197.62724650184501</v>
+        <v>-197.62724650184501</v>
       </c>
       <c r="X6">
         <v>197.62724650184501</v>
@@ -1007,8 +1045,14 @@
       <c r="AA6">
         <v>197.62724650184501</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB6">
+        <v>197.62724650184501</v>
+      </c>
+      <c r="AC6">
+        <v>197.62724650184501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>-1.94258918147646</v>
       </c>
@@ -1070,13 +1114,13 @@
         <v>419.84572200379802</v>
       </c>
       <c r="U7">
-        <v>-419.84572200379802</v>
+        <v>419.84572200379802</v>
       </c>
       <c r="V7">
         <v>419.84572200379802</v>
       </c>
       <c r="W7">
-        <v>419.84572200379802</v>
+        <v>-419.84572200379802</v>
       </c>
       <c r="X7">
         <v>419.84572200379802</v>
@@ -1090,8 +1134,14 @@
       <c r="AA7">
         <v>419.84572200379802</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB7">
+        <v>419.84572200379802</v>
+      </c>
+      <c r="AC7">
+        <v>419.84572200379802</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>0.58566200017238201</v>
       </c>
@@ -1153,13 +1203,13 @@
         <v>88.423831927732707</v>
       </c>
       <c r="U8">
-        <v>-88.423831927732707</v>
+        <v>88.423831927732707</v>
       </c>
       <c r="V8">
         <v>88.423831927732707</v>
       </c>
       <c r="W8">
-        <v>88.423831927732707</v>
+        <v>-88.423831927732707</v>
       </c>
       <c r="X8">
         <v>88.423831927732707</v>
@@ -1173,8 +1223,14 @@
       <c r="AA8">
         <v>88.423831927732707</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB8">
+        <v>88.423831927732707</v>
+      </c>
+      <c r="AC8">
+        <v>88.423831927732707</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>-0.19883786288889699</v>
       </c>
@@ -1256,8 +1312,14 @@
       <c r="AA9">
         <v>333.56760233436</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB9">
+        <v>333.56760233436</v>
+      </c>
+      <c r="AC9">
+        <v>333.56760233436</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>4.3596856834246897E-2</v>
       </c>
@@ -1339,8 +1401,14 @@
       <c r="AA10">
         <v>37.383717645522601</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB10">
+        <v>37.383717645522601</v>
+      </c>
+      <c r="AC10">
+        <v>37.383717645522601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1.2305581999547299</v>
       </c>
@@ -1402,13 +1470,13 @@
         <v>168.441881475191</v>
       </c>
       <c r="U11">
-        <v>-168.441881475191</v>
+        <v>168.441881475191</v>
       </c>
       <c r="V11">
         <v>168.441881475191</v>
       </c>
       <c r="W11">
-        <v>168.441881475191</v>
+        <v>-168.441881475191</v>
       </c>
       <c r="X11">
         <v>168.441881475191</v>
@@ -1422,8 +1490,14 @@
       <c r="AA11">
         <v>168.441881475191</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB11">
+        <v>168.441881475191</v>
+      </c>
+      <c r="AC11">
+        <v>168.441881475191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>-2.78253446765292</v>
       </c>
@@ -1485,13 +1559,13 @@
         <v>71.070576604437605</v>
       </c>
       <c r="U12">
-        <v>-71.070576604437605</v>
+        <v>71.070576604437605</v>
       </c>
       <c r="V12">
         <v>71.070576604437605</v>
       </c>
       <c r="W12">
-        <v>71.070576604437605</v>
+        <v>-71.070576604437605</v>
       </c>
       <c r="X12">
         <v>71.070576604437605</v>
@@ -1505,8 +1579,14 @@
       <c r="AA12">
         <v>71.070576604437605</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB12">
+        <v>71.070576604437605</v>
+      </c>
+      <c r="AC12">
+        <v>71.070576604437605</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>0.45794707630974202</v>
       </c>
@@ -1568,13 +1648,13 @@
         <v>24.9680446590075</v>
       </c>
       <c r="U13">
-        <v>-24.9680446590075</v>
+        <v>24.9680446590075</v>
       </c>
       <c r="V13">
         <v>24.9680446590075</v>
       </c>
       <c r="W13">
-        <v>24.9680446590075</v>
+        <v>-24.9680446590075</v>
       </c>
       <c r="X13">
         <v>24.9680446590075</v>
@@ -1588,8 +1668,14 @@
       <c r="AA13">
         <v>24.9680446590075</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB13">
+        <v>24.9680446590075</v>
+      </c>
+      <c r="AC13">
+        <v>24.9680446590075</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>-7.2892245211875997E-2</v>
       </c>
@@ -1671,8 +1757,14 @@
       <c r="AA14">
         <v>148.43160191009599</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB14">
+        <v>148.43160191009599</v>
+      </c>
+      <c r="AC14">
+        <v>148.43160191009599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>0.80745591700526997</v>
       </c>
@@ -1734,13 +1826,13 @@
         <v>95.663647328663799</v>
       </c>
       <c r="U15">
-        <v>-95.663647328663799</v>
+        <v>95.663647328663799</v>
       </c>
       <c r="V15">
         <v>95.663647328663799</v>
       </c>
       <c r="W15">
-        <v>95.663647328663799</v>
+        <v>-95.663647328663799</v>
       </c>
       <c r="X15">
         <v>95.663647328663799</v>
@@ -1754,8 +1846,14 @@
       <c r="AA15">
         <v>95.663647328663799</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB15">
+        <v>95.663647328663799</v>
+      </c>
+      <c r="AC15">
+        <v>95.663647328663799</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>7.3889837061838501E-3</v>
       </c>
@@ -1837,8 +1935,14 @@
       <c r="AA16">
         <v>2.4416583742618601</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB16">
+        <v>2.4416583742618601</v>
+      </c>
+      <c r="AC16">
+        <v>2.4416583742618601</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>0.74796332933783205</v>
       </c>
@@ -1920,8 +2024,14 @@
       <c r="AA17">
         <v>225.74269804224301</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB17">
+        <v>225.74269804224301</v>
+      </c>
+      <c r="AC17">
+        <v>225.74269804224301</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>-0.70435033152345905</v>
       </c>
@@ -2003,8 +2113,14 @@
       <c r="AA18">
         <v>140.77378313859001</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB18">
+        <v>140.77378313859001</v>
+      </c>
+      <c r="AC18">
+        <v>140.77378313859001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>4.0008419753754798E-3</v>
       </c>
@@ -2066,13 +2182,13 @@
         <v>182.213114987914</v>
       </c>
       <c r="U19">
-        <v>-182.213114987914</v>
+        <v>182.213114987914</v>
       </c>
       <c r="V19">
         <v>182.213114987914</v>
       </c>
       <c r="W19">
-        <v>182.213114987914</v>
+        <v>-182.213114987914</v>
       </c>
       <c r="X19">
         <v>182.213114987914</v>
@@ -2086,8 +2202,14 @@
       <c r="AA19">
         <v>182.213114987914</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB19">
+        <v>182.213114987914</v>
+      </c>
+      <c r="AC19">
+        <v>182.213114987914</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>-6.8770463078638502E-2</v>
       </c>
@@ -2149,13 +2271,13 @@
         <v>219.68310422507</v>
       </c>
       <c r="U20">
-        <v>-219.68310422507</v>
+        <v>219.68310422507</v>
       </c>
       <c r="V20">
         <v>219.68310422507</v>
       </c>
       <c r="W20">
-        <v>219.68310422507</v>
+        <v>-219.68310422507</v>
       </c>
       <c r="X20">
         <v>219.68310422507</v>
@@ -2169,8 +2291,14 @@
       <c r="AA20">
         <v>219.68310422507</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB20">
+        <v>219.68310422507</v>
+      </c>
+      <c r="AC20">
+        <v>219.68310422507</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>-2.2370865111124698</v>
       </c>
@@ -2232,13 +2360,13 @@
         <v>95.226195845401705</v>
       </c>
       <c r="U21">
-        <v>-95.226195845401705</v>
+        <v>95.226195845401705</v>
       </c>
       <c r="V21">
         <v>95.226195845401705</v>
       </c>
       <c r="W21">
-        <v>95.226195845401705</v>
+        <v>-95.226195845401705</v>
       </c>
       <c r="X21">
         <v>95.226195845401705</v>
@@ -2252,8 +2380,14 @@
       <c r="AA21">
         <v>95.226195845401705</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB21">
+        <v>95.226195845401705</v>
+      </c>
+      <c r="AC21">
+        <v>95.226195845401705</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>0.94980881521132898</v>
       </c>
@@ -2335,8 +2469,14 @@
       <c r="AA22">
         <v>108.768193130841</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB22">
+        <v>108.768193130841</v>
+      </c>
+      <c r="AC22">
+        <v>108.768193130841</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>1.19268606775469</v>
       </c>
@@ -2398,13 +2538,13 @@
         <v>6.6171372518783604</v>
       </c>
       <c r="U23">
-        <v>-6.6171372518783604</v>
+        <v>6.6171372518783604</v>
       </c>
       <c r="V23">
         <v>6.6171372518783604</v>
       </c>
       <c r="W23">
-        <v>6.6171372518783604</v>
+        <v>-6.6171372518783604</v>
       </c>
       <c r="X23">
         <v>6.6171372518783604</v>
@@ -2418,8 +2558,14 @@
       <c r="AA23">
         <v>6.6171372518783604</v>
       </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB23">
+        <v>6.6171372518783604</v>
+      </c>
+      <c r="AC23">
+        <v>6.6171372518783604</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>1.11989900355614</v>
       </c>
@@ -2501,8 +2647,14 @@
       <c r="AA24">
         <v>201.126351258103</v>
       </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB24">
+        <v>201.126351258103</v>
+      </c>
+      <c r="AC24">
+        <v>201.126351258103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>-0.73728962775993201</v>
       </c>
@@ -2584,8 +2736,14 @@
       <c r="AA25">
         <v>422.95528235678597</v>
       </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB25">
+        <v>422.95528235678597</v>
+      </c>
+      <c r="AC25">
+        <v>422.95528235678597</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>-0.69469359528722596</v>
       </c>
@@ -2667,8 +2825,14 @@
       <c r="AA26">
         <v>28.6432009960341</v>
       </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB26">
+        <v>28.6432009960341</v>
+      </c>
+      <c r="AC26">
+        <v>28.6432009960341</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>-0.56416393054538305</v>
       </c>
@@ -2750,8 +2914,14 @@
       <c r="AA27">
         <v>47.868404328197201</v>
       </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB27">
+        <v>47.868404328197201</v>
+      </c>
+      <c r="AC27">
+        <v>47.868404328197201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>-0.24282642147418301</v>
       </c>
@@ -2833,8 +3003,14 @@
       <c r="AA28">
         <v>435.65192171676898</v>
       </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB28">
+        <v>435.65192171676898</v>
+      </c>
+      <c r="AC28">
+        <v>435.65192171676898</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>-1.4795800346161101</v>
       </c>
@@ -2896,13 +3072,13 @@
         <v>122.099644256321</v>
       </c>
       <c r="U29">
-        <v>-122.099644256321</v>
+        <v>122.099644256321</v>
       </c>
       <c r="V29">
         <v>122.099644256321</v>
       </c>
       <c r="W29">
-        <v>122.099644256321</v>
+        <v>-122.099644256321</v>
       </c>
       <c r="X29">
         <v>122.099644256321</v>
@@ -2916,8 +3092,14 @@
       <c r="AA29">
         <v>122.099644256321</v>
       </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB29">
+        <v>122.099644256321</v>
+      </c>
+      <c r="AC29">
+        <v>122.099644256321</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>0.37756378632091903</v>
       </c>
@@ -2999,8 +3181,14 @@
       <c r="AA30">
         <v>73.009089991061202</v>
       </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB30">
+        <v>73.009089991061202</v>
+      </c>
+      <c r="AC30">
+        <v>73.009089991061202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>1.1158411079241699</v>
       </c>
@@ -3062,13 +3250,13 @@
         <v>60.620222220813403</v>
       </c>
       <c r="U31">
-        <v>-60.620222220813403</v>
+        <v>60.620222220813403</v>
       </c>
       <c r="V31">
         <v>60.620222220813403</v>
       </c>
       <c r="W31">
-        <v>60.620222220813403</v>
+        <v>-60.620222220813403</v>
       </c>
       <c r="X31">
         <v>60.620222220813403</v>
@@ -3082,8 +3270,14 @@
       <c r="AA31">
         <v>60.620222220813403</v>
       </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB31">
+        <v>60.620222220813403</v>
+      </c>
+      <c r="AC31">
+        <v>60.620222220813403</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>1.47016034382574</v>
       </c>
@@ -3145,13 +3339,13 @@
         <v>93.699246826384197</v>
       </c>
       <c r="U32">
-        <v>-93.699246826384197</v>
+        <v>93.699246826384197</v>
       </c>
       <c r="V32">
         <v>93.699246826384197</v>
       </c>
       <c r="W32">
-        <v>93.699246826384197</v>
+        <v>-93.699246826384197</v>
       </c>
       <c r="X32">
         <v>93.699246826384197</v>
@@ -3165,8 +3359,14 @@
       <c r="AA32">
         <v>93.699246826384197</v>
       </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB32">
+        <v>93.699246826384197</v>
+      </c>
+      <c r="AC32">
+        <v>93.699246826384197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>0.10734329382358999</v>
       </c>
@@ -3248,8 +3448,14 @@
       <c r="AA33">
         <v>371.58884226146398</v>
       </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB33">
+        <v>371.58884226146398</v>
+      </c>
+      <c r="AC33">
+        <v>371.58884226146398</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>0.30196004540614502</v>
       </c>
@@ -3331,8 +3537,14 @@
       <c r="AA34">
         <v>26.5143585200193</v>
       </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB34">
+        <v>26.5143585200193</v>
+      </c>
+      <c r="AC34">
+        <v>26.5143585200193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>8.96864073225902E-2</v>
       </c>
@@ -3394,13 +3606,13 @@
         <v>284.64143730339799</v>
       </c>
       <c r="U35">
-        <v>-284.64143730339799</v>
+        <v>284.64143730339799</v>
       </c>
       <c r="V35">
         <v>284.64143730339799</v>
       </c>
       <c r="W35">
-        <v>284.64143730339799</v>
+        <v>-284.64143730339799</v>
       </c>
       <c r="X35">
         <v>284.64143730339799</v>
@@ -3414,8 +3626,14 @@
       <c r="AA35">
         <v>284.64143730339799</v>
       </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB35">
+        <v>284.64143730339799</v>
+      </c>
+      <c r="AC35">
+        <v>284.64143730339799</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>0.51030759674525605</v>
       </c>
@@ -3477,13 +3695,13 @@
         <v>185.099756962165</v>
       </c>
       <c r="U36">
-        <v>-185.099756962165</v>
+        <v>185.099756962165</v>
       </c>
       <c r="V36">
         <v>185.099756962165</v>
       </c>
       <c r="W36">
-        <v>185.099756962165</v>
+        <v>-185.099756962165</v>
       </c>
       <c r="X36">
         <v>185.099756962165</v>
@@ -3497,8 +3715,14 @@
       <c r="AA36">
         <v>185.099756962165</v>
       </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB36">
+        <v>185.099756962165</v>
+      </c>
+      <c r="AC36">
+        <v>185.099756962165</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>0.92061511805495599</v>
       </c>
@@ -3560,13 +3784,13 @@
         <v>17.035593836358299</v>
       </c>
       <c r="U37">
-        <v>-17.035593836358299</v>
+        <v>17.035593836358299</v>
       </c>
       <c r="V37">
         <v>17.035593836358299</v>
       </c>
       <c r="W37">
-        <v>17.035593836358299</v>
+        <v>-17.035593836358299</v>
       </c>
       <c r="X37">
         <v>17.035593836358299</v>
@@ -3580,8 +3804,14 @@
       <c r="AA37">
         <v>17.035593836358299</v>
       </c>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB37">
+        <v>17.035593836358299</v>
+      </c>
+      <c r="AC37">
+        <v>17.035593836358299</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>0.98635218021206394</v>
       </c>
@@ -3663,8 +3893,14 @@
       <c r="AA38">
         <v>297.25789194745101</v>
       </c>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB38">
+        <v>297.25789194745101</v>
+      </c>
+      <c r="AC38">
+        <v>297.25789194745101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>1.21771625587535</v>
       </c>
@@ -3726,13 +3962,13 @@
         <v>64.265924099361399</v>
       </c>
       <c r="U39">
-        <v>-64.265924099361399</v>
+        <v>64.265924099361399</v>
       </c>
       <c r="V39">
         <v>64.265924099361399</v>
       </c>
       <c r="W39">
-        <v>64.265924099361399</v>
+        <v>-64.265924099361399</v>
       </c>
       <c r="X39">
         <v>64.265924099361399</v>
@@ -3746,8 +3982,14 @@
       <c r="AA39">
         <v>64.265924099361399</v>
       </c>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB39">
+        <v>64.265924099361399</v>
+      </c>
+      <c r="AC39">
+        <v>64.265924099361399</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>2.9417618970765599E-2</v>
       </c>
@@ -3809,13 +4051,13 @@
         <v>143.94021340599599</v>
       </c>
       <c r="U40">
-        <v>-143.94021340599599</v>
+        <v>143.94021340599599</v>
       </c>
       <c r="V40">
         <v>143.94021340599599</v>
       </c>
       <c r="W40">
-        <v>143.94021340599599</v>
+        <v>-143.94021340599599</v>
       </c>
       <c r="X40">
         <v>143.94021340599599</v>
@@ -3829,8 +4071,14 @@
       <c r="AA40">
         <v>143.94021340599599</v>
       </c>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB40">
+        <v>143.94021340599599</v>
+      </c>
+      <c r="AC40">
+        <v>143.94021340599599</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>-0.44730816175337801</v>
       </c>
@@ -3892,13 +4140,13 @@
         <v>182.465689967689</v>
       </c>
       <c r="U41">
-        <v>-182.465689967689</v>
+        <v>182.465689967689</v>
       </c>
       <c r="V41">
         <v>182.465689967689</v>
       </c>
       <c r="W41">
-        <v>182.465689967689</v>
+        <v>-182.465689967689</v>
       </c>
       <c r="X41">
         <v>182.465689967689</v>
@@ -3912,8 +4160,14 @@
       <c r="AA41">
         <v>182.465689967689</v>
       </c>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB41">
+        <v>182.465689967689</v>
+      </c>
+      <c r="AC41">
+        <v>182.465689967689</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>-0.60598132053859799</v>
       </c>
@@ -3995,8 +4249,14 @@
       <c r="AA42">
         <v>231.344440105708</v>
       </c>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB42">
+        <v>231.344440105708</v>
+      </c>
+      <c r="AC42">
+        <v>231.344440105708</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>0.82779142829223196</v>
       </c>
@@ -4078,8 +4338,14 @@
       <c r="AA43">
         <v>64.487404552059502</v>
       </c>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB43">
+        <v>64.487404552059502</v>
+      </c>
+      <c r="AC43">
+        <v>64.487404552059502</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>-0.287307863476019</v>
       </c>
@@ -4161,8 +4427,14 @@
       <c r="AA44">
         <v>296.02560689406101</v>
       </c>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB44">
+        <v>296.02560689406101</v>
+      </c>
+      <c r="AC44">
+        <v>296.02560689406101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>1.1564436063936501</v>
       </c>
@@ -4244,8 +4516,14 @@
       <c r="AA45">
         <v>48.189845303468097</v>
       </c>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB45">
+        <v>48.189845303468097</v>
+      </c>
+      <c r="AC45">
+        <v>48.189845303468097</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>1.2289555856507</v>
       </c>
@@ -4307,13 +4585,13 @@
         <v>292.34704349031102</v>
       </c>
       <c r="U46">
-        <v>-292.34704349031102</v>
+        <v>292.34704349031102</v>
       </c>
       <c r="V46">
         <v>292.34704349031102</v>
       </c>
       <c r="W46">
-        <v>292.34704349031102</v>
+        <v>-292.34704349031102</v>
       </c>
       <c r="X46">
         <v>292.34704349031102</v>
@@ -4327,8 +4605,14 @@
       <c r="AA46">
         <v>292.34704349031102</v>
       </c>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB46">
+        <v>292.34704349031102</v>
+      </c>
+      <c r="AC46">
+        <v>292.34704349031102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>0.42028220364705898</v>
       </c>
@@ -4410,8 +4694,14 @@
       <c r="AA47">
         <v>493.11257304081602</v>
       </c>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB47">
+        <v>493.11257304081602</v>
+      </c>
+      <c r="AC47">
+        <v>493.11257304081602</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>-5.1188447607664202E-2</v>
       </c>
@@ -4493,8 +4783,14 @@
       <c r="AA48">
         <v>249.16548679275701</v>
       </c>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB48">
+        <v>249.16548679275701</v>
+      </c>
+      <c r="AC48">
+        <v>249.16548679275701</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>-0.702920402910169</v>
       </c>
@@ -4556,13 +4852,13 @@
         <v>82.033202748881095</v>
       </c>
       <c r="U49">
-        <v>-82.033202748881095</v>
+        <v>82.033202748881095</v>
       </c>
       <c r="V49">
         <v>82.033202748881095</v>
       </c>
       <c r="W49">
-        <v>82.033202748881095</v>
+        <v>-82.033202748881095</v>
       </c>
       <c r="X49">
         <v>82.033202748881095</v>
@@ -4576,8 +4872,14 @@
       <c r="AA49">
         <v>82.033202748881095</v>
       </c>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB49">
+        <v>82.033202748881095</v>
+      </c>
+      <c r="AC49">
+        <v>82.033202748881095</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>0.262467445463269</v>
       </c>
@@ -4659,8 +4961,14 @@
       <c r="AA50">
         <v>26.712087937580701</v>
       </c>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB50">
+        <v>26.712087937580701</v>
+      </c>
+      <c r="AC50">
+        <v>26.712087937580701</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>1.45167890831793</v>
       </c>
@@ -4742,8 +5050,14 @@
       <c r="AA51">
         <v>80.749826997787096</v>
       </c>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB51">
+        <v>80.749826997787096</v>
+      </c>
+      <c r="AC51">
+        <v>80.749826997787096</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>0.85828600088220797</v>
       </c>
@@ -4825,8 +5139,14 @@
       <c r="AA52">
         <v>176.985469544805</v>
       </c>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB52">
+        <v>176.985469544805</v>
+      </c>
+      <c r="AC52">
+        <v>176.985469544805</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>2.42430661926451</v>
       </c>
@@ -4908,8 +5228,14 @@
       <c r="AA53">
         <v>218.03313863498701</v>
       </c>
-    </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB53">
+        <v>218.03313863498701</v>
+      </c>
+      <c r="AC53">
+        <v>218.03313863498701</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>-1.1171106924391101</v>
       </c>
@@ -4971,13 +5297,13 @@
         <v>47.677994481945198</v>
       </c>
       <c r="U54">
-        <v>-47.677994481945198</v>
+        <v>47.677994481945198</v>
       </c>
       <c r="V54">
         <v>47.677994481945198</v>
       </c>
       <c r="W54">
-        <v>47.677994481945198</v>
+        <v>-47.677994481945198</v>
       </c>
       <c r="X54">
         <v>47.677994481945198</v>
@@ -4991,8 +5317,14 @@
       <c r="AA54">
         <v>47.677994481945198</v>
       </c>
-    </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB54">
+        <v>47.677994481945198</v>
+      </c>
+      <c r="AC54">
+        <v>47.677994481945198</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>0.93272141368809203</v>
       </c>
@@ -5054,13 +5386,13 @@
         <v>28.857435910514202</v>
       </c>
       <c r="U55">
-        <v>-28.857435910514202</v>
+        <v>28.857435910514202</v>
       </c>
       <c r="V55">
         <v>28.857435910514202</v>
       </c>
       <c r="W55">
-        <v>28.857435910514202</v>
+        <v>-28.857435910514202</v>
       </c>
       <c r="X55">
         <v>28.857435910514202</v>
@@ -5074,8 +5406,14 @@
       <c r="AA55">
         <v>28.857435910514202</v>
       </c>
-    </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB55">
+        <v>28.857435910514202</v>
+      </c>
+      <c r="AC55">
+        <v>28.857435910514202</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>-0.94986385948765895</v>
       </c>
@@ -5137,13 +5475,13 @@
         <v>105.66536284964999</v>
       </c>
       <c r="U56">
-        <v>-105.66536284964999</v>
+        <v>105.66536284964999</v>
       </c>
       <c r="V56">
         <v>105.66536284964999</v>
       </c>
       <c r="W56">
-        <v>105.66536284964999</v>
+        <v>-105.66536284964999</v>
       </c>
       <c r="X56">
         <v>105.66536284964999</v>
@@ -5157,8 +5495,14 @@
       <c r="AA56">
         <v>105.66536284964999</v>
       </c>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB56">
+        <v>105.66536284964999</v>
+      </c>
+      <c r="AC56">
+        <v>105.66536284964999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>-6.96245394551291E-2</v>
       </c>
@@ -5220,13 +5564,13 @@
         <v>6.8245891858950403</v>
       </c>
       <c r="U57">
-        <v>-6.8245891858950403</v>
+        <v>6.8245891858950403</v>
       </c>
       <c r="V57">
         <v>6.8245891858950403</v>
       </c>
       <c r="W57">
-        <v>6.8245891858950403</v>
+        <v>-6.8245891858950403</v>
       </c>
       <c r="X57">
         <v>6.8245891858950403</v>
@@ -5240,8 +5584,14 @@
       <c r="AA57">
         <v>6.8245891858950403</v>
       </c>
-    </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB57">
+        <v>6.8245891858950403</v>
+      </c>
+      <c r="AC57">
+        <v>6.8245891858950403</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>-1.72508652597172E-2</v>
       </c>
@@ -5303,13 +5653,13 @@
         <v>80.051173920742698</v>
       </c>
       <c r="U58">
-        <v>-80.051173920742698</v>
+        <v>80.051173920742698</v>
       </c>
       <c r="V58">
         <v>80.051173920742698</v>
       </c>
       <c r="W58">
-        <v>80.051173920742698</v>
+        <v>-80.051173920742698</v>
       </c>
       <c r="X58">
         <v>80.051173920742698</v>
@@ -5323,8 +5673,14 @@
       <c r="AA58">
         <v>80.051173920742698</v>
       </c>
-    </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB58">
+        <v>80.051173920742698</v>
+      </c>
+      <c r="AC58">
+        <v>80.051173920742698</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>-0.92454121157604796</v>
       </c>
@@ -5386,13 +5742,13 @@
         <v>288.838237899001</v>
       </c>
       <c r="U59">
-        <v>-288.838237899001</v>
+        <v>288.838237899001</v>
       </c>
       <c r="V59">
         <v>288.838237899001</v>
       </c>
       <c r="W59">
-        <v>288.838237899001</v>
+        <v>-288.838237899001</v>
       </c>
       <c r="X59">
         <v>288.838237899001</v>
@@ -5406,8 +5762,14 @@
       <c r="AA59">
         <v>288.838237899001</v>
       </c>
-    </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB59">
+        <v>288.838237899001</v>
+      </c>
+      <c r="AC59">
+        <v>288.838237899001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>-1.45832446039315</v>
       </c>
@@ -5469,13 +5831,13 @@
         <v>379.871647804259</v>
       </c>
       <c r="U60">
-        <v>-379.871647804259</v>
+        <v>379.871647804259</v>
       </c>
       <c r="V60">
         <v>379.871647804259</v>
       </c>
       <c r="W60">
-        <v>379.871647804259</v>
+        <v>-379.871647804259</v>
       </c>
       <c r="X60">
         <v>379.871647804259</v>
@@ -5489,8 +5851,14 @@
       <c r="AA60">
         <v>379.871647804259</v>
       </c>
-    </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB60">
+        <v>379.871647804259</v>
+      </c>
+      <c r="AC60">
+        <v>379.871647804259</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>-1.5001768834947899</v>
       </c>
@@ -5572,8 +5940,14 @@
       <c r="AA61">
         <v>156.78872463200699</v>
       </c>
-    </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB61">
+        <v>156.78872463200699</v>
+      </c>
+      <c r="AC61">
+        <v>156.78872463200699</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>-0.1019320392636</v>
       </c>
@@ -5655,8 +6029,14 @@
       <c r="AA62">
         <v>78.996464962982898</v>
       </c>
-    </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB62">
+        <v>78.996464962982898</v>
+      </c>
+      <c r="AC62">
+        <v>78.996464962982898</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>-0.44317193070063798</v>
       </c>
@@ -5718,13 +6098,13 @@
         <v>119.26597979794499</v>
       </c>
       <c r="U63">
-        <v>-119.26597979794499</v>
+        <v>119.26597979794499</v>
       </c>
       <c r="V63">
         <v>119.26597979794499</v>
       </c>
       <c r="W63">
-        <v>119.26597979794499</v>
+        <v>-119.26597979794499</v>
       </c>
       <c r="X63">
         <v>119.26597979794499</v>
@@ -5738,8 +6118,14 @@
       <c r="AA63">
         <v>119.26597979794499</v>
       </c>
-    </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB63">
+        <v>119.26597979794499</v>
+      </c>
+      <c r="AC63">
+        <v>119.26597979794499</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>0.93110208130355698</v>
       </c>
@@ -5821,8 +6207,14 @@
       <c r="AA64">
         <v>26.020403640962801</v>
       </c>
-    </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB64">
+        <v>26.020403640962801</v>
+      </c>
+      <c r="AC64">
+        <v>26.020403640962801</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>0.61838026199852403</v>
       </c>
@@ -5904,8 +6296,14 @@
       <c r="AA65">
         <v>204.84974263645799</v>
       </c>
-    </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB65">
+        <v>204.84974263645799</v>
+      </c>
+      <c r="AC65">
+        <v>204.84974263645799</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>0.425622579611037</v>
       </c>
@@ -5967,13 +6365,13 @@
         <v>147.08804974195201</v>
       </c>
       <c r="U66">
-        <v>-147.08804974195201</v>
+        <v>147.08804974195201</v>
       </c>
       <c r="V66">
         <v>147.08804974195201</v>
       </c>
       <c r="W66">
-        <v>147.08804974195201</v>
+        <v>-147.08804974195201</v>
       </c>
       <c r="X66">
         <v>147.08804974195201</v>
@@ -5987,8 +6385,14 @@
       <c r="AA66">
         <v>147.08804974195201</v>
       </c>
-    </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB66">
+        <v>147.08804974195201</v>
+      </c>
+      <c r="AC66">
+        <v>147.08804974195201</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>-0.60460296916437595</v>
       </c>
@@ -6070,8 +6474,14 @@
       <c r="AA67">
         <v>523.43684250782599</v>
       </c>
-    </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB67">
+        <v>523.43684250782599</v>
+      </c>
+      <c r="AC67">
+        <v>523.43684250782599</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>1.98441124888512</v>
       </c>
@@ -6133,13 +6543,13 @@
         <v>276.55913446194501</v>
       </c>
       <c r="U68">
-        <v>-276.55913446194501</v>
+        <v>276.55913446194501</v>
       </c>
       <c r="V68">
         <v>276.55913446194501</v>
       </c>
       <c r="W68">
-        <v>276.55913446194501</v>
+        <v>-276.55913446194501</v>
       </c>
       <c r="X68">
         <v>276.55913446194501</v>
@@ -6153,8 +6563,14 @@
       <c r="AA68">
         <v>276.55913446194501</v>
       </c>
-    </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB68">
+        <v>276.55913446194501</v>
+      </c>
+      <c r="AC68">
+        <v>276.55913446194501</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>-0.190221025084861</v>
       </c>
@@ -6236,8 +6652,14 @@
       <c r="AA69">
         <v>83.180883479344203</v>
       </c>
-    </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB69">
+        <v>83.180883479344203</v>
+      </c>
+      <c r="AC69">
+        <v>83.180883479344203</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>0.15205234093342901</v>
       </c>
@@ -6319,8 +6741,14 @@
       <c r="AA70">
         <v>284.03269244703898</v>
       </c>
-    </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB70">
+        <v>284.03269244703898</v>
+      </c>
+      <c r="AC70">
+        <v>284.03269244703898</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>-0.68748739306017403</v>
       </c>
@@ -6402,8 +6830,14 @@
       <c r="AA71">
         <v>148.28404314879199</v>
       </c>
-    </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB71">
+        <v>148.28404314879199</v>
+      </c>
+      <c r="AC71">
+        <v>148.28404314879199</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>0.26939745280486099</v>
       </c>
@@ -6485,8 +6919,14 @@
       <c r="AA72">
         <v>281.88384296391803</v>
       </c>
-    </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB72">
+        <v>281.88384296391803</v>
+      </c>
+      <c r="AC72">
+        <v>281.88384296391803</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>-0.20984694852691799</v>
       </c>
@@ -6548,13 +6988,13 @@
         <v>87.240116003580795</v>
       </c>
       <c r="U73">
-        <v>-87.240116003580795</v>
+        <v>87.240116003580795</v>
       </c>
       <c r="V73">
         <v>87.240116003580795</v>
       </c>
       <c r="W73">
-        <v>87.240116003580795</v>
+        <v>-87.240116003580795</v>
       </c>
       <c r="X73">
         <v>87.240116003580795</v>
@@ -6568,8 +7008,14 @@
       <c r="AA73">
         <v>87.240116003580795</v>
       </c>
-    </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB73">
+        <v>87.240116003580795</v>
+      </c>
+      <c r="AC73">
+        <v>87.240116003580795</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>1.8514378945735099</v>
       </c>
@@ -6651,8 +7097,14 @@
       <c r="AA74">
         <v>19.7837442633124</v>
       </c>
-    </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB74">
+        <v>19.7837442633124</v>
+      </c>
+      <c r="AC74">
+        <v>19.7837442633124</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>-0.396293291842643</v>
       </c>
@@ -6714,13 +7166,13 @@
         <v>340.37119323732799</v>
       </c>
       <c r="U75">
-        <v>-340.37119323732799</v>
+        <v>340.37119323732799</v>
       </c>
       <c r="V75">
         <v>340.37119323732799</v>
       </c>
       <c r="W75">
-        <v>340.37119323732799</v>
+        <v>-340.37119323732799</v>
       </c>
       <c r="X75">
         <v>340.37119323732799</v>
@@ -6734,8 +7186,14 @@
       <c r="AA75">
         <v>340.37119323732799</v>
       </c>
-    </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB75">
+        <v>340.37119323732799</v>
+      </c>
+      <c r="AC75">
+        <v>340.37119323732799</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>0.237332699339597</v>
       </c>
@@ -6797,13 +7255,13 @@
         <v>55.320601103086098</v>
       </c>
       <c r="U76">
-        <v>-55.320601103086098</v>
+        <v>55.320601103086098</v>
       </c>
       <c r="V76">
         <v>55.320601103086098</v>
       </c>
       <c r="W76">
-        <v>55.320601103086098</v>
+        <v>-55.320601103086098</v>
       </c>
       <c r="X76">
         <v>55.320601103086098</v>
@@ -6817,8 +7275,14 @@
       <c r="AA76">
         <v>55.320601103086098</v>
       </c>
-    </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB76">
+        <v>55.320601103086098</v>
+      </c>
+      <c r="AC76">
+        <v>55.320601103086098</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>2.10025513647884</v>
       </c>
@@ -6900,8 +7364,14 @@
       <c r="AA77">
         <v>45.571022996102599</v>
       </c>
-    </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB77">
+        <v>45.571022996102599</v>
+      </c>
+      <c r="AC77">
+        <v>45.571022996102599</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>0.39233491112430802</v>
       </c>
@@ -6983,8 +7453,14 @@
       <c r="AA78">
         <v>230.75839770011399</v>
       </c>
-    </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB78">
+        <v>230.75839770011399</v>
+      </c>
+      <c r="AC78">
+        <v>230.75839770011399</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>-0.83016886402270795</v>
       </c>
@@ -7046,13 +7522,13 @@
         <v>25.163184827167498</v>
       </c>
       <c r="U79">
-        <v>-25.163184827167498</v>
+        <v>25.163184827167498</v>
       </c>
       <c r="V79">
         <v>25.163184827167498</v>
       </c>
       <c r="W79">
-        <v>25.163184827167498</v>
+        <v>-25.163184827167498</v>
       </c>
       <c r="X79">
         <v>25.163184827167498</v>
@@ -7066,8 +7542,14 @@
       <c r="AA79">
         <v>25.163184827167498</v>
       </c>
-    </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB79">
+        <v>25.163184827167498</v>
+      </c>
+      <c r="AC79">
+        <v>25.163184827167498</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>0.50390621918970302</v>
       </c>
@@ -7129,13 +7611,13 @@
         <v>86.201924318321304</v>
       </c>
       <c r="U80">
-        <v>-86.201924318321304</v>
+        <v>86.201924318321304</v>
       </c>
       <c r="V80">
         <v>86.201924318321304</v>
       </c>
       <c r="W80">
-        <v>86.201924318321304</v>
+        <v>-86.201924318321304</v>
       </c>
       <c r="X80">
         <v>86.201924318321304</v>
@@ -7149,8 +7631,14 @@
       <c r="AA80">
         <v>86.201924318321304</v>
       </c>
-    </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB80">
+        <v>86.201924318321304</v>
+      </c>
+      <c r="AC80">
+        <v>86.201924318321304</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>0.73307256054244596</v>
       </c>
@@ -7212,13 +7700,13 @@
         <v>190.680628822361</v>
       </c>
       <c r="U81">
-        <v>-190.680628822361</v>
+        <v>190.680628822361</v>
       </c>
       <c r="V81">
         <v>190.680628822361</v>
       </c>
       <c r="W81">
-        <v>190.680628822361</v>
+        <v>-190.680628822361</v>
       </c>
       <c r="X81">
         <v>190.680628822361</v>
@@ -7232,8 +7720,14 @@
       <c r="AA81">
         <v>190.680628822361</v>
       </c>
-    </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB81">
+        <v>190.680628822361</v>
+      </c>
+      <c r="AC81">
+        <v>190.680628822361</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>0.55743945285803298</v>
       </c>
@@ -7315,8 +7809,14 @@
       <c r="AA82">
         <v>108.54194394341</v>
       </c>
-    </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB82">
+        <v>108.54194394341</v>
+      </c>
+      <c r="AC82">
+        <v>108.54194394341</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>1.7587593500838301</v>
       </c>
@@ -7378,13 +7878,13 @@
         <v>61.185065675550902</v>
       </c>
       <c r="U83">
-        <v>-61.185065675550902</v>
+        <v>61.185065675550902</v>
       </c>
       <c r="V83">
         <v>61.185065675550902</v>
       </c>
       <c r="W83">
-        <v>61.185065675550902</v>
+        <v>-61.185065675550902</v>
       </c>
       <c r="X83">
         <v>61.185065675550902</v>
@@ -7398,8 +7898,14 @@
       <c r="AA83">
         <v>61.185065675550902</v>
       </c>
-    </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB83">
+        <v>61.185065675550902</v>
+      </c>
+      <c r="AC83">
+        <v>61.185065675550902</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>0.72171129211269303</v>
       </c>
@@ -7461,13 +7967,13 @@
         <v>126.868342132374</v>
       </c>
       <c r="U84">
-        <v>-126.868342132374</v>
+        <v>126.868342132374</v>
       </c>
       <c r="V84">
         <v>126.868342132374</v>
       </c>
       <c r="W84">
-        <v>126.868342132374</v>
+        <v>-126.868342132374</v>
       </c>
       <c r="X84">
         <v>126.868342132374</v>
@@ -7481,8 +7987,14 @@
       <c r="AA84">
         <v>126.868342132374</v>
       </c>
-    </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB84">
+        <v>126.868342132374</v>
+      </c>
+      <c r="AC84">
+        <v>126.868342132374</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>-1.2776363350812301</v>
       </c>
@@ -7564,8 +8076,14 @@
       <c r="AA85">
         <v>37.598613141520701</v>
       </c>
-    </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB85">
+        <v>37.598613141520701</v>
+      </c>
+      <c r="AC85">
+        <v>37.598613141520701</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>1.5198168164221999</v>
       </c>
@@ -7647,8 +8165,14 @@
       <c r="AA86">
         <v>122.042357711561</v>
       </c>
-    </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB86">
+        <v>122.042357711561</v>
+      </c>
+      <c r="AC86">
+        <v>122.042357711561</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>-0.28200590241096102</v>
       </c>
@@ -7730,8 +8254,14 @@
       <c r="AA87">
         <v>187.16521852478701</v>
       </c>
-    </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB87">
+        <v>187.16521852478701</v>
+      </c>
+      <c r="AC87">
+        <v>187.16521852478701</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>-1.14434138962314</v>
       </c>
@@ -7793,13 +8323,13 @@
         <v>60.375439163394098</v>
       </c>
       <c r="U88">
-        <v>-60.375439163394098</v>
+        <v>60.375439163394098</v>
       </c>
       <c r="V88">
         <v>60.375439163394098</v>
       </c>
       <c r="W88">
-        <v>60.375439163394098</v>
+        <v>-60.375439163394098</v>
       </c>
       <c r="X88">
         <v>60.375439163394098</v>
@@ -7813,8 +8343,14 @@
       <c r="AA88">
         <v>60.375439163394098</v>
       </c>
-    </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB88">
+        <v>60.375439163394098</v>
+      </c>
+      <c r="AC88">
+        <v>60.375439163394098</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>0.17718772027596</v>
       </c>
@@ -7876,13 +8412,13 @@
         <v>52.749988269304403</v>
       </c>
       <c r="U89">
-        <v>-52.749988269304403</v>
+        <v>52.749988269304403</v>
       </c>
       <c r="V89">
         <v>52.749988269304403</v>
       </c>
       <c r="W89">
-        <v>52.749988269304403</v>
+        <v>-52.749988269304403</v>
       </c>
       <c r="X89">
         <v>52.749988269304403</v>
@@ -7896,8 +8432,14 @@
       <c r="AA89">
         <v>52.749988269304403</v>
       </c>
-    </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB89">
+        <v>52.749988269304403</v>
+      </c>
+      <c r="AC89">
+        <v>52.749988269304403</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>0.35356721600262903</v>
       </c>
@@ -7979,8 +8521,14 @@
       <c r="AA90">
         <v>306.00285984753998</v>
       </c>
-    </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB90">
+        <v>306.00285984753998</v>
+      </c>
+      <c r="AC90">
+        <v>306.00285984753998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>-0.46411490564820601</v>
       </c>
@@ -8062,8 +8610,14 @@
       <c r="AA91">
         <v>276.69320898179802</v>
       </c>
-    </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB91">
+        <v>276.69320898179802</v>
+      </c>
+      <c r="AC91">
+        <v>276.69320898179802</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>0.33801169657447599</v>
       </c>
@@ -8145,8 +8699,14 @@
       <c r="AA92">
         <v>355.94642157132603</v>
       </c>
-    </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB92">
+        <v>355.94642157132603</v>
+      </c>
+      <c r="AC92">
+        <v>355.94642157132603</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>2.0299974874404598</v>
       </c>
@@ -8208,13 +8768,13 @@
         <v>98.525248582323002</v>
       </c>
       <c r="U93">
-        <v>-98.525248582323002</v>
+        <v>98.525248582323002</v>
       </c>
       <c r="V93">
         <v>98.525248582323002</v>
       </c>
       <c r="W93">
-        <v>98.525248582323002</v>
+        <v>-98.525248582323002</v>
       </c>
       <c r="X93">
         <v>98.525248582323002</v>
@@ -8228,8 +8788,14 @@
       <c r="AA93">
         <v>98.525248582323002</v>
       </c>
-    </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB93">
+        <v>98.525248582323002</v>
+      </c>
+      <c r="AC93">
+        <v>98.525248582323002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>-0.56398645841015704</v>
       </c>
@@ -8311,8 +8877,14 @@
       <c r="AA94">
         <v>191.62897194855901</v>
       </c>
-    </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB94">
+        <v>191.62897194855901</v>
+      </c>
+      <c r="AC94">
+        <v>191.62897194855901</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>0.64098586638350596</v>
       </c>
@@ -8394,8 +8966,14 @@
       <c r="AA95">
         <v>239.53689596996901</v>
       </c>
-    </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB95">
+        <v>239.53689596996901</v>
+      </c>
+      <c r="AC95">
+        <v>239.53689596996901</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>-0.35340998286701403</v>
       </c>
@@ -8477,8 +9055,14 @@
       <c r="AA96">
         <v>68.918647811576307</v>
       </c>
-    </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB96">
+        <v>68.918647811576307</v>
+      </c>
+      <c r="AC96">
+        <v>68.918647811576307</v>
+      </c>
+    </row>
+    <row r="97" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>0.82797464260724596</v>
       </c>
@@ -8540,13 +9124,13 @@
         <v>111.027239092282</v>
       </c>
       <c r="U97">
-        <v>-111.027239092282</v>
+        <v>111.027239092282</v>
       </c>
       <c r="V97">
         <v>111.027239092282</v>
       </c>
       <c r="W97">
-        <v>111.027239092282</v>
+        <v>-111.027239092282</v>
       </c>
       <c r="X97">
         <v>111.027239092282</v>
@@ -8560,8 +9144,14 @@
       <c r="AA97">
         <v>111.027239092282</v>
       </c>
-    </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB97">
+        <v>111.027239092282</v>
+      </c>
+      <c r="AC97">
+        <v>111.027239092282</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>4.9061692373102803E-2</v>
       </c>
@@ -8623,13 +9213,13 @@
         <v>67.301694336704799</v>
       </c>
       <c r="U98">
-        <v>-67.301694336704799</v>
+        <v>67.301694336704799</v>
       </c>
       <c r="V98">
         <v>67.301694336704799</v>
       </c>
       <c r="W98">
-        <v>67.301694336704799</v>
+        <v>-67.301694336704799</v>
       </c>
       <c r="X98">
         <v>67.301694336704799</v>
@@ -8643,8 +9233,14 @@
       <c r="AA98">
         <v>67.301694336704799</v>
       </c>
-    </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB98">
+        <v>67.301694336704799</v>
+      </c>
+      <c r="AC98">
+        <v>67.301694336704799</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>0.17794555796161099</v>
       </c>
@@ -8726,8 +9322,14 @@
       <c r="AA99">
         <v>89.621790675680103</v>
       </c>
-    </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB99">
+        <v>89.621790675680103</v>
+      </c>
+      <c r="AC99">
+        <v>89.621790675680103</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>9.8942246032496295E-2</v>
       </c>
@@ -8809,8 +9411,14 @@
       <c r="AA100">
         <v>203.89057356233599</v>
       </c>
-    </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB100">
+        <v>203.89057356233599</v>
+      </c>
+      <c r="AC100">
+        <v>203.89057356233599</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>-0.95370060180793503</v>
       </c>
@@ -8892,8 +9500,14 @@
       <c r="AA101">
         <v>115.721086658942</v>
       </c>
-    </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB101">
+        <v>115.721086658942</v>
+      </c>
+      <c r="AC101">
+        <v>115.721086658942</v>
+      </c>
+    </row>
+    <row r="102" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>-0.17545896866175301</v>
       </c>
@@ -8955,13 +9569,13 @@
         <v>194.02048850615699</v>
       </c>
       <c r="U102">
-        <v>-194.02048850615699</v>
+        <v>194.02048850615699</v>
       </c>
       <c r="V102">
         <v>194.02048850615699</v>
       </c>
       <c r="W102">
-        <v>194.02048850615699</v>
+        <v>-194.02048850615699</v>
       </c>
       <c r="X102">
         <v>194.02048850615699</v>
@@ -8975,8 +9589,14 @@
       <c r="AA102">
         <v>194.02048850615699</v>
       </c>
-    </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB102">
+        <v>194.02048850615699</v>
+      </c>
+      <c r="AC102">
+        <v>194.02048850615699</v>
+      </c>
+    </row>
+    <row r="103" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>-0.42642861763352202</v>
       </c>
@@ -9038,13 +9658,13 @@
         <v>375.33612527825301</v>
       </c>
       <c r="U103">
-        <v>-375.33612527825301</v>
+        <v>375.33612527825301</v>
       </c>
       <c r="V103">
         <v>375.33612527825301</v>
       </c>
       <c r="W103">
-        <v>375.33612527825301</v>
+        <v>-375.33612527825301</v>
       </c>
       <c r="X103">
         <v>375.33612527825301</v>
@@ -9058,8 +9678,14 @@
       <c r="AA103">
         <v>375.33612527825301</v>
       </c>
-    </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB103">
+        <v>375.33612527825301</v>
+      </c>
+      <c r="AC103">
+        <v>375.33612527825301</v>
+      </c>
+    </row>
+    <row r="104" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>1.67072922171092</v>
       </c>
@@ -9141,8 +9767,14 @@
       <c r="AA104">
         <v>76.329320398277503</v>
       </c>
-    </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB104">
+        <v>76.329320398277503</v>
+      </c>
+      <c r="AC104">
+        <v>76.329320398277503</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>-0.26046605886537999</v>
       </c>
@@ -9204,13 +9836,13 @@
         <v>129.73240041532699</v>
       </c>
       <c r="U105">
-        <v>-129.73240041532699</v>
+        <v>129.73240041532699</v>
       </c>
       <c r="V105">
         <v>129.73240041532699</v>
       </c>
       <c r="W105">
-        <v>129.73240041532699</v>
+        <v>-129.73240041532699</v>
       </c>
       <c r="X105">
         <v>129.73240041532699</v>
@@ -9224,8 +9856,14 @@
       <c r="AA105">
         <v>129.73240041532699</v>
       </c>
-    </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB105">
+        <v>129.73240041532699</v>
+      </c>
+      <c r="AC105">
+        <v>129.73240041532699</v>
+      </c>
+    </row>
+    <row r="106" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>-0.71005254899305204</v>
       </c>
@@ -9307,8 +9945,14 @@
       <c r="AA106">
         <v>175.158248192412</v>
       </c>
-    </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB106">
+        <v>175.158248192412</v>
+      </c>
+      <c r="AC106">
+        <v>175.158248192412</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>-0.17418034430799101</v>
       </c>
@@ -9370,13 +10014,13 @@
         <v>63.466489778357797</v>
       </c>
       <c r="U107">
-        <v>-63.466489778357797</v>
+        <v>63.466489778357797</v>
       </c>
       <c r="V107">
         <v>63.466489778357797</v>
       </c>
       <c r="W107">
-        <v>63.466489778357797</v>
+        <v>-63.466489778357797</v>
       </c>
       <c r="X107">
         <v>63.466489778357797</v>
@@ -9390,8 +10034,14 @@
       <c r="AA107">
         <v>63.466489778357797</v>
       </c>
-    </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB107">
+        <v>63.466489778357797</v>
+      </c>
+      <c r="AC107">
+        <v>63.466489778357797</v>
+      </c>
+    </row>
+    <row r="108" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>1.3471054646705001</v>
       </c>
@@ -9453,13 +10103,13 @@
         <v>319.53778237249003</v>
       </c>
       <c r="U108">
-        <v>-319.53778237249003</v>
+        <v>319.53778237249003</v>
       </c>
       <c r="V108">
         <v>319.53778237249003</v>
       </c>
       <c r="W108">
-        <v>319.53778237249003</v>
+        <v>-319.53778237249003</v>
       </c>
       <c r="X108">
         <v>319.53778237249003</v>
@@ -9473,8 +10123,14 @@
       <c r="AA108">
         <v>319.53778237249003</v>
       </c>
-    </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB108">
+        <v>319.53778237249003</v>
+      </c>
+      <c r="AC108">
+        <v>319.53778237249003</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>-0.65460316852497802</v>
       </c>
@@ -9536,13 +10192,13 @@
         <v>188.606750858564</v>
       </c>
       <c r="U109">
-        <v>-188.606750858564</v>
+        <v>188.606750858564</v>
       </c>
       <c r="V109">
         <v>188.606750858564</v>
       </c>
       <c r="W109">
-        <v>188.606750858564</v>
+        <v>-188.606750858564</v>
       </c>
       <c r="X109">
         <v>188.606750858564</v>
@@ -9556,8 +10212,14 @@
       <c r="AA109">
         <v>188.606750858564</v>
       </c>
-    </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB109">
+        <v>188.606750858564</v>
+      </c>
+      <c r="AC109">
+        <v>188.606750858564</v>
+      </c>
+    </row>
+    <row r="110" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>1.0008814236803001</v>
       </c>
@@ -9619,13 +10281,13 @@
         <v>3.9984844641187101</v>
       </c>
       <c r="U110">
-        <v>-3.9984844641187101</v>
+        <v>3.9984844641187101</v>
       </c>
       <c r="V110">
         <v>3.9984844641187101</v>
       </c>
       <c r="W110">
-        <v>3.9984844641187101</v>
+        <v>-3.9984844641187101</v>
       </c>
       <c r="X110">
         <v>3.9984844641187101</v>
@@ -9639,8 +10301,14 @@
       <c r="AA110">
         <v>3.9984844641187101</v>
       </c>
-    </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB110">
+        <v>3.9984844641187101</v>
+      </c>
+      <c r="AC110">
+        <v>3.9984844641187101</v>
+      </c>
+    </row>
+    <row r="111" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>0.78477065101558996</v>
       </c>
@@ -9702,13 +10370,13 @@
         <v>23.233461700832699</v>
       </c>
       <c r="U111">
-        <v>-23.233461700832699</v>
+        <v>23.233461700832699</v>
       </c>
       <c r="V111">
         <v>23.233461700832699</v>
       </c>
       <c r="W111">
-        <v>23.233461700832699</v>
+        <v>-23.233461700832699</v>
       </c>
       <c r="X111">
         <v>23.233461700832699</v>
@@ -9722,8 +10390,14 @@
       <c r="AA111">
         <v>23.233461700832699</v>
       </c>
-    </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB111">
+        <v>23.233461700832699</v>
+      </c>
+      <c r="AC111">
+        <v>23.233461700832699</v>
+      </c>
+    </row>
+    <row r="112" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>-1.0535460737003199</v>
       </c>
@@ -9805,8 +10479,14 @@
       <c r="AA112">
         <v>92.6982551645863</v>
       </c>
-    </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB112">
+        <v>92.6982551645863</v>
+      </c>
+      <c r="AC112">
+        <v>92.6982551645863</v>
+      </c>
+    </row>
+    <row r="113" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>-0.43495668295522799</v>
       </c>
@@ -9888,8 +10568,14 @@
       <c r="AA113">
         <v>99.609488099703697</v>
       </c>
-    </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB113">
+        <v>99.609488099703697</v>
+      </c>
+      <c r="AC113">
+        <v>99.609488099703697</v>
+      </c>
+    </row>
+    <row r="114" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>0.62743708275311005</v>
       </c>
@@ -9971,8 +10657,14 @@
       <c r="AA114">
         <v>136.900691959368</v>
       </c>
-    </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB114">
+        <v>136.900691959368</v>
+      </c>
+      <c r="AC114">
+        <v>136.900691959368</v>
+      </c>
+    </row>
+    <row r="115" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>0.21353390133544201</v>
       </c>
@@ -10034,13 +10726,13 @@
         <v>39.165548846714401</v>
       </c>
       <c r="U115">
-        <v>-39.165548846714401</v>
+        <v>39.165548846714401</v>
       </c>
       <c r="V115">
         <v>39.165548846714401</v>
       </c>
       <c r="W115">
-        <v>39.165548846714401</v>
+        <v>-39.165548846714401</v>
       </c>
       <c r="X115">
         <v>39.165548846714401</v>
@@ -10054,8 +10746,14 @@
       <c r="AA115">
         <v>39.165548846714401</v>
       </c>
-    </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB115">
+        <v>39.165548846714401</v>
+      </c>
+      <c r="AC115">
+        <v>39.165548846714401</v>
+      </c>
+    </row>
+    <row r="116" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>-1.4489915485220499</v>
       </c>
@@ -10117,13 +10815,13 @@
         <v>96.994985268579001</v>
       </c>
       <c r="U116">
-        <v>-96.994985268579001</v>
+        <v>96.994985268579001</v>
       </c>
       <c r="V116">
         <v>96.994985268579001</v>
       </c>
       <c r="W116">
-        <v>96.994985268579001</v>
+        <v>-96.994985268579001</v>
       </c>
       <c r="X116">
         <v>96.994985268579001</v>
@@ -10137,8 +10835,14 @@
       <c r="AA116">
         <v>96.994985268579001</v>
       </c>
-    </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB116">
+        <v>96.994985268579001</v>
+      </c>
+      <c r="AC116">
+        <v>96.994985268579001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>0.327068407569367</v>
       </c>
@@ -10220,8 +10924,14 @@
       <c r="AA117">
         <v>8.68123795143214E-2</v>
       </c>
-    </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB117">
+        <v>8.68123795143214E-2</v>
+      </c>
+      <c r="AC117">
+        <v>8.68123795143214E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>0.68648264013164595</v>
       </c>
@@ -10303,8 +11013,14 @@
       <c r="AA118">
         <v>231.159621572612</v>
       </c>
-    </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB118">
+        <v>231.159621572612</v>
+      </c>
+      <c r="AC118">
+        <v>231.159621572612</v>
+      </c>
+    </row>
+    <row r="119" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>-0.87785841792137198</v>
       </c>
@@ -10366,13 +11082,13 @@
         <v>18.435747264821899</v>
       </c>
       <c r="U119">
-        <v>-18.435747264821899</v>
+        <v>18.435747264821899</v>
       </c>
       <c r="V119">
         <v>18.435747264821899</v>
       </c>
       <c r="W119">
-        <v>18.435747264821899</v>
+        <v>-18.435747264821899</v>
       </c>
       <c r="X119">
         <v>18.435747264821899</v>
@@ -10386,8 +11102,14 @@
       <c r="AA119">
         <v>18.435747264821899</v>
       </c>
-    </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB119">
+        <v>18.435747264821899</v>
+      </c>
+      <c r="AC119">
+        <v>18.435747264821899</v>
+      </c>
+    </row>
+    <row r="120" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>0.35016715882827898</v>
       </c>
@@ -10449,13 +11171,13 @@
         <v>53.098004231943499</v>
       </c>
       <c r="U120">
-        <v>-53.098004231943499</v>
+        <v>53.098004231943499</v>
       </c>
       <c r="V120">
         <v>53.098004231943499</v>
       </c>
       <c r="W120">
-        <v>53.098004231943499</v>
+        <v>-53.098004231943499</v>
       </c>
       <c r="X120">
         <v>53.098004231943499</v>
@@ -10469,8 +11191,14 @@
       <c r="AA120">
         <v>53.098004231943499</v>
       </c>
-    </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB120">
+        <v>53.098004231943499</v>
+      </c>
+      <c r="AC120">
+        <v>53.098004231943499</v>
+      </c>
+    </row>
+    <row r="121" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>-1.4023291454531399</v>
       </c>
@@ -10552,8 +11280,14 @@
       <c r="AA121">
         <v>15.627524007935801</v>
       </c>
-    </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB121">
+        <v>15.627524007935801</v>
+      </c>
+      <c r="AC121">
+        <v>15.627524007935801</v>
+      </c>
+    </row>
+    <row r="122" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>0.23441569781709201</v>
       </c>
@@ -10615,13 +11349,13 @@
         <v>167.756716387702</v>
       </c>
       <c r="U122">
-        <v>-167.756716387702</v>
+        <v>167.756716387702</v>
       </c>
       <c r="V122">
         <v>167.756716387702</v>
       </c>
       <c r="W122">
-        <v>167.756716387702</v>
+        <v>-167.756716387702</v>
       </c>
       <c r="X122">
         <v>167.756716387702</v>
@@ -10635,8 +11369,14 @@
       <c r="AA122">
         <v>167.756716387702</v>
       </c>
-    </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB122">
+        <v>167.756716387702</v>
+      </c>
+      <c r="AC122">
+        <v>167.756716387702</v>
+      </c>
+    </row>
+    <row r="123" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>1.3025355364861799</v>
       </c>
@@ -10698,13 +11438,13 @@
         <v>111.43987442211299</v>
       </c>
       <c r="U123">
-        <v>-111.43987442211299</v>
+        <v>111.43987442211299</v>
       </c>
       <c r="V123">
         <v>111.43987442211299</v>
       </c>
       <c r="W123">
-        <v>111.43987442211299</v>
+        <v>-111.43987442211299</v>
       </c>
       <c r="X123">
         <v>111.43987442211299</v>
@@ -10718,8 +11458,14 @@
       <c r="AA123">
         <v>111.43987442211299</v>
       </c>
-    </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB123">
+        <v>111.43987442211299</v>
+      </c>
+      <c r="AC123">
+        <v>111.43987442211299</v>
+      </c>
+    </row>
+    <row r="124" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>-0.11905418777481</v>
       </c>
@@ -10801,8 +11547,14 @@
       <c r="AA124">
         <v>54.183090567789698</v>
       </c>
-    </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB124">
+        <v>54.183090567789698</v>
+      </c>
+      <c r="AC124">
+        <v>54.183090567789698</v>
+      </c>
+    </row>
+    <row r="125" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>-1.9231634097637201E-2</v>
       </c>
@@ -10864,13 +11616,13 @@
         <v>8.8147750411054702</v>
       </c>
       <c r="U125">
-        <v>-8.8147750411054702</v>
+        <v>8.8147750411054702</v>
       </c>
       <c r="V125">
         <v>8.8147750411054702</v>
       </c>
       <c r="W125">
-        <v>8.8147750411054702</v>
+        <v>-8.8147750411054702</v>
       </c>
       <c r="X125">
         <v>8.8147750411054702</v>
@@ -10884,8 +11636,14 @@
       <c r="AA125">
         <v>8.8147750411054702</v>
       </c>
-    </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB125">
+        <v>8.8147750411054702</v>
+      </c>
+      <c r="AC125">
+        <v>8.8147750411054702</v>
+      </c>
+    </row>
+    <row r="126" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>1.17517868755736</v>
       </c>
@@ -10947,13 +11705,13 @@
         <v>156.20367112819099</v>
       </c>
       <c r="U126">
-        <v>-156.20367112819099</v>
+        <v>156.20367112819099</v>
       </c>
       <c r="V126">
         <v>156.20367112819099</v>
       </c>
       <c r="W126">
-        <v>156.20367112819099</v>
+        <v>-156.20367112819099</v>
       </c>
       <c r="X126">
         <v>156.20367112819099</v>
@@ -10967,8 +11725,14 @@
       <c r="AA126">
         <v>156.20367112819099</v>
       </c>
-    </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB126">
+        <v>156.20367112819099</v>
+      </c>
+      <c r="AC126">
+        <v>156.20367112819099</v>
+      </c>
+    </row>
+    <row r="127" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>-0.93418184314794905</v>
       </c>
@@ -11030,13 +11794,13 @@
         <v>10.611734617440201</v>
       </c>
       <c r="U127">
-        <v>-10.611734617440201</v>
+        <v>10.611734617440201</v>
       </c>
       <c r="V127">
         <v>10.611734617440201</v>
       </c>
       <c r="W127">
-        <v>10.611734617440201</v>
+        <v>-10.611734617440201</v>
       </c>
       <c r="X127">
         <v>10.611734617440201</v>
@@ -11050,8 +11814,14 @@
       <c r="AA127">
         <v>10.611734617440201</v>
       </c>
-    </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB127">
+        <v>10.611734617440201</v>
+      </c>
+      <c r="AC127">
+        <v>10.611734617440201</v>
+      </c>
+    </row>
+    <row r="128" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>0.31443193375247103</v>
       </c>
@@ -11113,13 +11883,13 @@
         <v>98.862610923714996</v>
       </c>
       <c r="U128">
-        <v>-98.862610923714996</v>
+        <v>98.862610923714996</v>
       </c>
       <c r="V128">
         <v>98.862610923714996</v>
       </c>
       <c r="W128">
-        <v>98.862610923714996</v>
+        <v>-98.862610923714996</v>
       </c>
       <c r="X128">
         <v>98.862610923714996</v>
@@ -11133,8 +11903,14 @@
       <c r="AA128">
         <v>98.862610923714996</v>
       </c>
-    </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB128">
+        <v>98.862610923714996</v>
+      </c>
+      <c r="AC128">
+        <v>98.862610923714996</v>
+      </c>
+    </row>
+    <row r="129" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>1.11548937409481</v>
       </c>
@@ -11196,13 +11972,13 @@
         <v>121.07361554527201</v>
       </c>
       <c r="U129">
-        <v>-121.07361554527201</v>
+        <v>121.07361554527201</v>
       </c>
       <c r="V129">
         <v>121.07361554527201</v>
       </c>
       <c r="W129">
-        <v>121.07361554527201</v>
+        <v>-121.07361554527201</v>
       </c>
       <c r="X129">
         <v>121.07361554527201</v>
@@ -11216,8 +11992,14 @@
       <c r="AA129">
         <v>121.07361554527201</v>
       </c>
-    </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB129">
+        <v>121.07361554527201</v>
+      </c>
+      <c r="AC129">
+        <v>121.07361554527201</v>
+      </c>
+    </row>
+    <row r="130" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>-0.14848980305939399</v>
       </c>
@@ -11299,8 +12081,14 @@
       <c r="AA130">
         <v>285.959189206399</v>
       </c>
-    </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB130">
+        <v>285.959189206399</v>
+      </c>
+      <c r="AC130">
+        <v>285.959189206399</v>
+      </c>
+    </row>
+    <row r="131" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>-0.312229661377812</v>
       </c>
@@ -11362,13 +12150,13 @@
         <v>228.48020213056</v>
       </c>
       <c r="U131">
-        <v>-228.48020213056</v>
+        <v>228.48020213056</v>
       </c>
       <c r="V131">
         <v>228.48020213056</v>
       </c>
       <c r="W131">
-        <v>228.48020213056</v>
+        <v>-228.48020213056</v>
       </c>
       <c r="X131">
         <v>228.48020213056</v>
@@ -11382,8 +12170,14 @@
       <c r="AA131">
         <v>228.48020213056</v>
       </c>
-    </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB131">
+        <v>228.48020213056</v>
+      </c>
+      <c r="AC131">
+        <v>228.48020213056</v>
+      </c>
+    </row>
+    <row r="132" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>0.93755484286774604</v>
       </c>
@@ -11465,8 +12259,14 @@
       <c r="AA132">
         <v>314.49312412279102</v>
       </c>
-    </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB132">
+        <v>314.49312412279102</v>
+      </c>
+      <c r="AC132">
+        <v>314.49312412279102</v>
+      </c>
+    </row>
+    <row r="133" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>4.0371431022839299E-2</v>
       </c>
@@ -11548,8 +12348,14 @@
       <c r="AA133">
         <v>376.74547298792601</v>
       </c>
-    </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB133">
+        <v>376.74547298792601</v>
+      </c>
+      <c r="AC133">
+        <v>376.74547298792601</v>
+      </c>
+    </row>
+    <row r="134" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>-0.77507028707343495</v>
       </c>
@@ -11611,13 +12417,13 @@
         <v>104.33535070316</v>
       </c>
       <c r="U134">
-        <v>-104.33535070316</v>
+        <v>104.33535070316</v>
       </c>
       <c r="V134">
         <v>104.33535070316</v>
       </c>
       <c r="W134">
-        <v>104.33535070316</v>
+        <v>-104.33535070316</v>
       </c>
       <c r="X134">
         <v>104.33535070316</v>
@@ -11631,8 +12437,14 @@
       <c r="AA134">
         <v>104.33535070316</v>
       </c>
-    </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB134">
+        <v>104.33535070316</v>
+      </c>
+      <c r="AC134">
+        <v>104.33535070316</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>-0.58702900515480405</v>
       </c>
@@ -11694,13 +12506,13 @@
         <v>0.89938897992433597</v>
       </c>
       <c r="U135">
-        <v>-0.89938897992433597</v>
+        <v>0.89938897992433597</v>
       </c>
       <c r="V135">
         <v>0.89938897992433597</v>
       </c>
       <c r="W135">
-        <v>0.89938897992433597</v>
+        <v>-0.89938897992433597</v>
       </c>
       <c r="X135">
         <v>0.89938897992433597</v>
@@ -11714,8 +12526,14 @@
       <c r="AA135">
         <v>0.89938897992433597</v>
       </c>
-    </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB135">
+        <v>0.89938897992433597</v>
+      </c>
+      <c r="AC135">
+        <v>0.89938897992433597</v>
+      </c>
+    </row>
+    <row r="136" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A136">
         <v>1.7054835177554399</v>
       </c>
@@ -11777,13 +12595,13 @@
         <v>11.0296671440683</v>
       </c>
       <c r="U136">
-        <v>-11.0296671440683</v>
+        <v>11.0296671440683</v>
       </c>
       <c r="V136">
         <v>11.0296671440683</v>
       </c>
       <c r="W136">
-        <v>11.0296671440683</v>
+        <v>-11.0296671440683</v>
       </c>
       <c r="X136">
         <v>11.0296671440683</v>
@@ -11797,8 +12615,14 @@
       <c r="AA136">
         <v>11.0296671440683</v>
       </c>
-    </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB136">
+        <v>11.0296671440683</v>
+      </c>
+      <c r="AC136">
+        <v>11.0296671440683</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A137">
         <v>-0.78553399692023596</v>
       </c>
@@ -11880,8 +12704,14 @@
       <c r="AA137">
         <v>178.42456417004601</v>
       </c>
-    </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB137">
+        <v>178.42456417004601</v>
+      </c>
+      <c r="AC137">
+        <v>178.42456417004601</v>
+      </c>
+    </row>
+    <row r="138" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A138">
         <v>1.7653351005190701</v>
       </c>
@@ -11963,8 +12793,14 @@
       <c r="AA138">
         <v>116.122852101641</v>
       </c>
-    </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB138">
+        <v>116.122852101641</v>
+      </c>
+      <c r="AC138">
+        <v>116.122852101641</v>
+      </c>
+    </row>
+    <row r="139" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>0.608749082341702</v>
       </c>
@@ -12026,13 +12862,13 @@
         <v>99.592207859723302</v>
       </c>
       <c r="U139">
-        <v>-99.592207859723302</v>
+        <v>99.592207859723302</v>
       </c>
       <c r="V139">
         <v>99.592207859723302</v>
       </c>
       <c r="W139">
-        <v>99.592207859723302</v>
+        <v>-99.592207859723302</v>
       </c>
       <c r="X139">
         <v>99.592207859723302</v>
@@ -12046,8 +12882,14 @@
       <c r="AA139">
         <v>99.592207859723302</v>
       </c>
-    </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB139">
+        <v>99.592207859723302</v>
+      </c>
+      <c r="AC139">
+        <v>99.592207859723302</v>
+      </c>
+    </row>
+    <row r="140" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A140">
         <v>-1.6157723547032901</v>
       </c>
@@ -12109,13 +12951,13 @@
         <v>73.266114211173104</v>
       </c>
       <c r="U140">
-        <v>-73.266114211173104</v>
+        <v>73.266114211173104</v>
       </c>
       <c r="V140">
         <v>73.266114211173104</v>
       </c>
       <c r="W140">
-        <v>73.266114211173104</v>
+        <v>-73.266114211173104</v>
       </c>
       <c r="X140">
         <v>73.266114211173104</v>
@@ -12129,8 +12971,14 @@
       <c r="AA140">
         <v>73.266114211173104</v>
       </c>
-    </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB140">
+        <v>73.266114211173104</v>
+      </c>
+      <c r="AC140">
+        <v>73.266114211173104</v>
+      </c>
+    </row>
+    <row r="141" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A141">
         <v>-1.01951984940572</v>
       </c>
@@ -12212,8 +13060,14 @@
       <c r="AA141">
         <v>232.64592034704199</v>
       </c>
-    </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB141">
+        <v>232.64592034704199</v>
+      </c>
+      <c r="AC141">
+        <v>232.64592034704199</v>
+      </c>
+    </row>
+    <row r="142" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A142">
         <v>1.0336868679394999</v>
       </c>
@@ -12295,8 +13149,14 @@
       <c r="AA142">
         <v>461.00968271155699</v>
       </c>
-    </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB142">
+        <v>461.00968271155699</v>
+      </c>
+      <c r="AC142">
+        <v>461.00968271155699</v>
+      </c>
+    </row>
+    <row r="143" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>-0.89055558416304803</v>
       </c>
@@ -12358,13 +13218,13 @@
         <v>41.021178456411697</v>
       </c>
       <c r="U143">
-        <v>-41.021178456411697</v>
+        <v>41.021178456411697</v>
       </c>
       <c r="V143">
         <v>41.021178456411697</v>
       </c>
       <c r="W143">
-        <v>41.021178456411697</v>
+        <v>-41.021178456411697</v>
       </c>
       <c r="X143">
         <v>41.021178456411697</v>
@@ -12378,8 +13238,14 @@
       <c r="AA143">
         <v>41.021178456411697</v>
       </c>
-    </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB143">
+        <v>41.021178456411697</v>
+      </c>
+      <c r="AC143">
+        <v>41.021178456411697</v>
+      </c>
+    </row>
+    <row r="144" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A144">
         <v>-0.548760829152385</v>
       </c>
@@ -12461,8 +13327,14 @@
       <c r="AA144">
         <v>330.773137977928</v>
       </c>
-    </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB144">
+        <v>330.773137977928</v>
+      </c>
+      <c r="AC144">
+        <v>330.773137977928</v>
+      </c>
+    </row>
+    <row r="145" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>0.18553562096655499</v>
       </c>
@@ -12544,8 +13416,14 @@
       <c r="AA145">
         <v>128.11187898705199</v>
       </c>
-    </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB145">
+        <v>128.11187898705199</v>
+      </c>
+      <c r="AC145">
+        <v>128.11187898705199</v>
+      </c>
+    </row>
+    <row r="146" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A146">
         <v>1.23225307082844</v>
       </c>
@@ -12627,8 +13505,14 @@
       <c r="AA146">
         <v>236.54988401845401</v>
       </c>
-    </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB146">
+        <v>236.54988401845401</v>
+      </c>
+      <c r="AC146">
+        <v>236.54988401845401</v>
+      </c>
+    </row>
+    <row r="147" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A147">
         <v>-0.26056059062235098</v>
       </c>
@@ -12690,13 +13574,13 @@
         <v>191.18396974980999</v>
       </c>
       <c r="U147">
-        <v>-191.18396974980999</v>
+        <v>191.18396974980999</v>
       </c>
       <c r="V147">
         <v>191.18396974980999</v>
       </c>
       <c r="W147">
-        <v>191.18396974980999</v>
+        <v>-191.18396974980999</v>
       </c>
       <c r="X147">
         <v>191.18396974980999</v>
@@ -12710,8 +13594,14 @@
       <c r="AA147">
         <v>191.18396974980999</v>
       </c>
-    </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB147">
+        <v>191.18396974980999</v>
+      </c>
+      <c r="AC147">
+        <v>191.18396974980999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A148">
         <v>0.24073709223773199</v>
       </c>
@@ -12793,8 +13683,14 @@
       <c r="AA148">
         <v>64.605338658831698</v>
       </c>
-    </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB148">
+        <v>64.605338658831698</v>
+      </c>
+      <c r="AC148">
+        <v>64.605338658831698</v>
+      </c>
+    </row>
+    <row r="149" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A149">
         <v>-0.22423577212349799</v>
       </c>
@@ -12856,13 +13752,13 @@
         <v>22.978008079120301</v>
       </c>
       <c r="U149">
-        <v>-22.978008079120301</v>
+        <v>22.978008079120301</v>
       </c>
       <c r="V149">
         <v>22.978008079120301</v>
       </c>
       <c r="W149">
-        <v>22.978008079120301</v>
+        <v>-22.978008079120301</v>
       </c>
       <c r="X149">
         <v>22.978008079120301</v>
@@ -12876,8 +13772,14 @@
       <c r="AA149">
         <v>22.978008079120301</v>
       </c>
-    </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB149">
+        <v>22.978008079120301</v>
+      </c>
+      <c r="AC149">
+        <v>22.978008079120301</v>
+      </c>
+    </row>
+    <row r="150" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A150">
         <v>-0.76120690089510301</v>
       </c>
@@ -12935,9 +13837,6 @@
       <c r="S150">
         <v>6.4038591834252099</v>
       </c>
-      <c r="T150">
-        <v>6.4038591834252099</v>
-      </c>
       <c r="U150">
         <v>6.4038591834252099</v>
       </c>
@@ -12959,8 +13858,14 @@
       <c r="AA150">
         <v>6.4038591834252099</v>
       </c>
-    </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB150">
+        <v>6.4038591834252099</v>
+      </c>
+      <c r="AC150">
+        <v>6.4038591834252099</v>
+      </c>
+    </row>
+    <row r="151" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A151">
         <v>-0.935769434259069</v>
       </c>
@@ -13018,12 +13923,6 @@
       <c r="S151">
         <v>79.3562180891156</v>
       </c>
-      <c r="T151">
-        <v>79.3562180891156</v>
-      </c>
-      <c r="U151">
-        <v>79.3562180891156</v>
-      </c>
       <c r="V151">
         <v>79.3562180891156</v>
       </c>
@@ -13040,6 +13939,12 @@
         <v>79.3562180891156</v>
       </c>
       <c r="AA151">
+        <v>79.3562180891156</v>
+      </c>
+      <c r="AB151">
+        <v>79.3562180891156</v>
+      </c>
+      <c r="AC151">
         <v>79.3562180891156</v>
       </c>
     </row>
